--- a/Version3/BugTracker_v3.xlsx
+++ b/Version3/BugTracker_v3.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TESTER\GURU_BANK\GURU99_BANK\Version3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Defects" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -494,7 +489,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
       <sz val="10"/>
@@ -756,7 +751,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -808,7 +803,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1002,7 +997,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1017,23 +1012,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="A1:J36"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="5"/>
-    <col min="3" max="3" width="9.1796875"/>
-    <col min="4" max="4" width="7.453125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="5"/>
+    <col min="1" max="1" width="8.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="9.140625"/>
+    <col min="4" max="4" width="7.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="5"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="37.54296875" customWidth="1"/>
-    <col min="8" max="8" width="29.54296875" customWidth="1"/>
-    <col min="9" max="10" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="10" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="62">
+    <row r="1" spans="1:22" ht="63">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1072,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="46.5">
+    <row r="2" spans="1:22" ht="47.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -1109,7 +1104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="77.5">
+    <row r="3" spans="1:22" ht="78.75">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -1141,7 +1136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="62">
+    <row r="4" spans="1:22" ht="63">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -1173,7 +1168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="62">
+    <row r="5" spans="1:22" ht="63">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -1205,7 +1200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="77.5">
+    <row r="6" spans="1:22" ht="78.75">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -1237,7 +1232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="46.5">
+    <row r="7" spans="1:22" ht="47.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -1269,7 +1264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="62">
+    <row r="8" spans="1:22" ht="63">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -1301,7 +1296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="93">
+    <row r="9" spans="1:22" ht="94.5">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -1333,7 +1328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="62">
+    <row r="10" spans="1:22" ht="63">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -1365,7 +1360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="46.5">
+    <row r="11" spans="1:22" ht="47.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -1397,7 +1392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="46.5">
+    <row r="12" spans="1:22" ht="47.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -1429,7 +1424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="46.5">
+    <row r="13" spans="1:22" ht="47.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -1461,7 +1456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="46.5">
+    <row r="14" spans="1:22" ht="47.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -1493,7 +1488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="46.5">
+    <row r="15" spans="1:22" ht="47.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -1525,7 +1520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="62">
+    <row r="16" spans="1:22" ht="63">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -1557,7 +1552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="46.5">
+    <row r="17" spans="1:10" ht="47.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -1589,7 +1584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="62">
+    <row r="18" spans="1:10" ht="78.75">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -1621,7 +1616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="46.5">
+    <row r="19" spans="1:10" ht="47.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -1653,7 +1648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="46.5">
+    <row r="20" spans="1:10" ht="47.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -1685,7 +1680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="46.5">
+    <row r="21" spans="1:10" ht="47.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -1717,7 +1712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="62">
+    <row r="22" spans="1:10" ht="63">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -1747,7 +1742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="62">
+    <row r="23" spans="1:10" ht="63">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -1779,7 +1774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="62">
+    <row r="24" spans="1:10" ht="63">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -1811,7 +1806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="46.5">
+    <row r="25" spans="1:10" ht="47.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -1843,7 +1838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="46.5">
+    <row r="26" spans="1:10" ht="47.25">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -1875,7 +1870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="77.5">
+    <row r="27" spans="1:10" ht="78.75">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -1907,7 +1902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="46.5">
+    <row r="28" spans="1:10" ht="47.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -1939,7 +1934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="46.5">
+    <row r="29" spans="1:10" ht="47.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -1971,7 +1966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="62">
+    <row r="30" spans="1:10" ht="63">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -2003,7 +1998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="77.5">
+    <row r="31" spans="1:10" ht="94.5">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -2035,7 +2030,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="93">
+    <row r="32" spans="1:10" ht="94.5">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -2067,7 +2062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="93">
+    <row r="33" spans="1:10" ht="94.5">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -2099,7 +2094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="46.5">
+    <row r="34" spans="1:10" ht="47.25">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -2131,7 +2126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="62">
+    <row r="35" spans="1:10" ht="63">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -2163,7 +2158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="62">
+    <row r="36" spans="1:10" ht="63">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -2195,7 +2190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="12.5">
+    <row r="37" spans="1:10" ht="12.75">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="6"/>
@@ -2207,7 +2202,7 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" ht="12.5">
+    <row r="38" spans="1:10" ht="12.75">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="6"/>
@@ -2219,7 +2214,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" ht="12.5">
+    <row r="39" spans="1:10" ht="12.75">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="6"/>
@@ -2231,7 +2226,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" ht="12.5">
+    <row r="40" spans="1:10" ht="12.75">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
@@ -2243,7 +2238,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" ht="12.5">
+    <row r="41" spans="1:10" ht="12.75">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
@@ -2255,7 +2250,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10" ht="12.5">
+    <row r="42" spans="1:10" ht="12.75">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="6"/>
@@ -2267,7 +2262,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="12.5">
+    <row r="43" spans="1:10" ht="12.75">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="6"/>
@@ -2279,7 +2274,7 @@
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10" ht="12.5">
+    <row r="44" spans="1:10" ht="12.75">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="6"/>
@@ -2291,7 +2286,7 @@
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10" ht="12.5">
+    <row r="45" spans="1:10" ht="12.75">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="6"/>
@@ -2303,7 +2298,7 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10" ht="12.5">
+    <row r="46" spans="1:10" ht="12.75">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="6"/>
@@ -2315,7 +2310,7 @@
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" ht="12.5">
+    <row r="47" spans="1:10" ht="12.75">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="6"/>
@@ -2327,7 +2322,7 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" ht="12.5">
+    <row r="48" spans="1:10" ht="12.75">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="6"/>
@@ -2339,7 +2334,7 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="1:10" ht="12.5">
+    <row r="49" spans="1:10" ht="12.75">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="6"/>
@@ -2351,7 +2346,7 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="1:10" ht="12.5">
+    <row r="50" spans="1:10" ht="12.75">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="6"/>
@@ -2363,7 +2358,7 @@
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" ht="12.5">
+    <row r="51" spans="1:10" ht="12.75">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="6"/>
@@ -2375,7 +2370,7 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" ht="12.5">
+    <row r="52" spans="1:10" ht="12.75">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="6"/>
@@ -2387,7 +2382,7 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:10" ht="12.5">
+    <row r="53" spans="1:10" ht="12.75">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="6"/>
@@ -2399,7 +2394,7 @@
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:10" ht="12.5">
+    <row r="54" spans="1:10" ht="12.75">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="6"/>
@@ -2411,7 +2406,7 @@
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" ht="12.5">
+    <row r="55" spans="1:10" ht="12.75">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="6"/>
@@ -2423,7 +2418,7 @@
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" ht="12.5">
+    <row r="56" spans="1:10" ht="12.75">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="6"/>
@@ -2435,7 +2430,7 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" ht="12.5">
+    <row r="57" spans="1:10" ht="12.75">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="6"/>
@@ -2447,7 +2442,7 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" ht="12.5">
+    <row r="58" spans="1:10" ht="12.75">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="6"/>
@@ -2459,7 +2454,7 @@
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10" ht="12.5">
+    <row r="59" spans="1:10" ht="12.75">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="6"/>
@@ -2471,7 +2466,7 @@
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" ht="12.5">
+    <row r="60" spans="1:10" ht="12.75">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="6"/>
@@ -2483,7 +2478,7 @@
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:10" ht="12.5">
+    <row r="61" spans="1:10" ht="12.75">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="6"/>
@@ -2495,7 +2490,7 @@
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="1:10" ht="12.5">
+    <row r="62" spans="1:10" ht="12.75">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="6"/>
@@ -2507,7 +2502,7 @@
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="1:10" ht="12.5">
+    <row r="63" spans="1:10" ht="12.75">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="6"/>
@@ -2531,7 +2526,7 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="1:10" ht="12.5">
+    <row r="65" spans="1:10" ht="12.75">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="6"/>
@@ -2543,7 +2538,7 @@
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="1:10" ht="12.5">
+    <row r="66" spans="1:10" ht="12.75">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="6"/>
@@ -2555,7 +2550,7 @@
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="1:10" ht="12.5">
+    <row r="67" spans="1:10" ht="12.75">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="6"/>
@@ -2579,7 +2574,7 @@
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="1:10" ht="12.5">
+    <row r="69" spans="1:10" ht="12.75">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="6"/>
@@ -2591,7 +2586,7 @@
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="1:10" ht="12.5">
+    <row r="70" spans="1:10" ht="12.75">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="6"/>
@@ -2603,7 +2598,7 @@
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="1:10" ht="12.5">
+    <row r="71" spans="1:10" ht="12.75">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="6"/>
@@ -2615,7 +2610,7 @@
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="1:10" ht="12.5">
+    <row r="72" spans="1:10" ht="12.75">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="6"/>
@@ -2627,7 +2622,7 @@
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="1:10" ht="12.5">
+    <row r="73" spans="1:10" ht="12.75">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="6"/>
@@ -2639,7 +2634,7 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="1:10" ht="12.5">
+    <row r="74" spans="1:10" ht="12.75">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="6"/>
@@ -2651,7 +2646,7 @@
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="1:10" ht="12.5">
+    <row r="75" spans="1:10" ht="12.75">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="6"/>
@@ -2663,7 +2658,7 @@
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="1:10" ht="12.5">
+    <row r="76" spans="1:10" ht="12.75">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="6"/>
@@ -2675,7 +2670,7 @@
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="1:10" ht="12.5">
+    <row r="77" spans="1:10" ht="12.75">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="6"/>
@@ -2687,7 +2682,7 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
-    <row r="78" spans="1:10" ht="12.5">
+    <row r="78" spans="1:10" ht="12.75">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="6"/>
@@ -2699,7 +2694,7 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
     </row>
-    <row r="79" spans="1:10" ht="12.5">
+    <row r="79" spans="1:10" ht="12.75">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="6"/>
@@ -2711,7 +2706,7 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
     </row>
-    <row r="80" spans="1:10" ht="12.5">
+    <row r="80" spans="1:10" ht="12.75">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="6"/>
@@ -2723,7 +2718,7 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
     </row>
-    <row r="81" spans="1:10" ht="12.5">
+    <row r="81" spans="1:10" ht="12.75">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="6"/>
@@ -2735,7 +2730,7 @@
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
     </row>
-    <row r="82" spans="1:10" ht="12.5">
+    <row r="82" spans="1:10" ht="12.75">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="6"/>
@@ -2747,7 +2742,7 @@
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
     </row>
-    <row r="83" spans="1:10" ht="12.5">
+    <row r="83" spans="1:10" ht="12.75">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="6"/>
@@ -2759,7 +2754,7 @@
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
     </row>
-    <row r="84" spans="1:10" ht="12.5">
+    <row r="84" spans="1:10" ht="12.75">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="6"/>
@@ -2771,7 +2766,7 @@
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
     </row>
-    <row r="85" spans="1:10" ht="12.5">
+    <row r="85" spans="1:10" ht="12.75">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="6"/>
@@ -2783,7 +2778,7 @@
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
     </row>
-    <row r="86" spans="1:10" ht="12.5">
+    <row r="86" spans="1:10" ht="12.75">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="6"/>
@@ -2795,7 +2790,7 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
     </row>
-    <row r="87" spans="1:10" ht="12.5">
+    <row r="87" spans="1:10" ht="12.75">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="6"/>
@@ -2807,7 +2802,7 @@
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
     </row>
-    <row r="88" spans="1:10" ht="12.5">
+    <row r="88" spans="1:10" ht="12.75">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="6"/>
@@ -2831,7 +2826,7 @@
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
     </row>
-    <row r="90" spans="1:10" ht="12.5">
+    <row r="90" spans="1:10" ht="12.75">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="6"/>
@@ -2843,7 +2838,7 @@
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
     </row>
-    <row r="91" spans="1:10" ht="12.5">
+    <row r="91" spans="1:10" ht="12.75">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="6"/>
@@ -2855,7 +2850,7 @@
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
     </row>
-    <row r="92" spans="1:10" ht="12.5">
+    <row r="92" spans="1:10" ht="12.75">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="6"/>
@@ -2867,7 +2862,7 @@
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
     </row>
-    <row r="93" spans="1:10" ht="12.5">
+    <row r="93" spans="1:10" ht="12.75">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="6"/>
@@ -2879,7 +2874,7 @@
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
     </row>
-    <row r="94" spans="1:10" ht="12.5">
+    <row r="94" spans="1:10" ht="12.75">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="6"/>
@@ -2891,7 +2886,7 @@
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
     </row>
-    <row r="95" spans="1:10" ht="12.5">
+    <row r="95" spans="1:10" ht="12.75">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="6"/>
@@ -2903,7 +2898,7 @@
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
     </row>
-    <row r="96" spans="1:10" ht="12.5">
+    <row r="96" spans="1:10" ht="12.75">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="6"/>
@@ -2915,7 +2910,7 @@
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
     </row>
-    <row r="97" spans="1:10" ht="12.5">
+    <row r="97" spans="1:10" ht="12.75">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="6"/>
@@ -2927,7 +2922,7 @@
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
     </row>
-    <row r="98" spans="1:10" ht="12.5">
+    <row r="98" spans="1:10" ht="12.75">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="6"/>
@@ -2939,7 +2934,7 @@
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
     </row>
-    <row r="99" spans="1:10" ht="12.5">
+    <row r="99" spans="1:10" ht="12.75">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="6"/>
@@ -2951,7 +2946,7 @@
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
     </row>
-    <row r="100" spans="1:10" ht="12.5">
+    <row r="100" spans="1:10" ht="12.75">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="6"/>
@@ -2963,7 +2958,7 @@
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
     </row>
-    <row r="101" spans="1:10" ht="12.5">
+    <row r="101" spans="1:10" ht="12.75">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="6"/>
@@ -2975,7 +2970,7 @@
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
     </row>
-    <row r="102" spans="1:10" ht="12.5">
+    <row r="102" spans="1:10" ht="12.75">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="3"/>
@@ -2987,7 +2982,7 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10" ht="12.5">
+    <row r="103" spans="1:10" ht="12.75">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="3"/>
@@ -2999,7 +2994,7 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10" ht="12.5">
+    <row r="104" spans="1:10" ht="12.75">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
@@ -3011,7 +3006,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10" ht="12.5">
+    <row r="105" spans="1:10" ht="12.75">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="3"/>
@@ -3023,7 +3018,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" ht="12.5">
+    <row r="106" spans="1:10" ht="12.75">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="3"/>
@@ -3035,7 +3030,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="1:10" ht="12.5">
+    <row r="107" spans="1:10" ht="12.75">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="3"/>
@@ -3047,7 +3042,7 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="1:10" ht="12.5">
+    <row r="108" spans="1:10" ht="12.75">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="3"/>
@@ -3059,7 +3054,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" ht="12.5">
+    <row r="109" spans="1:10" ht="12.75">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="3"/>
@@ -3071,7 +3066,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10" ht="12.5">
+    <row r="110" spans="1:10" ht="12.75">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="3"/>
@@ -3083,7 +3078,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:10" ht="12.5">
+    <row r="111" spans="1:10" ht="12.75">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="3"/>
@@ -3095,7 +3090,7 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10" ht="12.5">
+    <row r="112" spans="1:10" ht="12.75">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
@@ -3107,7 +3102,7 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10" ht="12.5">
+    <row r="113" spans="1:10" ht="12.75">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
@@ -3119,7 +3114,7 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="1:10" ht="12.5">
+    <row r="114" spans="1:10" ht="12.75">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
